--- a/BCD_Dev_Roadmap.xlsx
+++ b/BCD_Dev_Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Google Drive\NCG\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A7BE85-041E-4B1A-9891-A7814FD652B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348C7C39-B4BC-4914-BDA0-46CD80E6868C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{169BFD33-D13C-442D-8909-743EA56292E9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Integration Tests</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>CMS</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Design System</t>
+  </si>
+  <si>
+    <t>API Docs</t>
+  </si>
+  <si>
+    <t>Swagger</t>
   </si>
 </sst>
 </file>
@@ -511,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561F45B1-C7A3-4F41-9A57-F7306AE2CF63}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,27 +627,51 @@
         <v>25</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/BCD_Dev_Roadmap.xlsx
+++ b/BCD_Dev_Roadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Google Drive\NCG\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Documents\repos\bcd-dd-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348C7C39-B4BC-4914-BDA0-46CD80E6868C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C125518B-03A1-493F-B713-0902E209BAF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{169BFD33-D13C-442D-8909-743EA56292E9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Integration Tests</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Stack component</t>
   </si>
   <si>
-    <t>Chai, Mocha, Jest</t>
-  </si>
-  <si>
     <t>Vue</t>
   </si>
   <si>
@@ -124,6 +121,34 @@
   </si>
   <si>
     <t>Swagger</t>
+  </si>
+  <si>
+    <t>Cookbook pg 93 TAP: Why I use Tape Instead of Mocha &amp; So Should You - JavaScript Scene - Medium.pdf in \Javascript\Node\books\NodeCookbookThirdEd\Refs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chai, Mocha, Jest, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supertest + Tape</t>
+    </r>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Convert plannig tool to use streams</t>
+  </si>
+  <si>
+    <t>Persist Bikes Day/Week/Month data, use smarter task runner (Agenda) to differentiate changes to data only</t>
   </si>
 </sst>
 </file>
@@ -523,27 +548,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561F45B1-C7A3-4F41-9A57-F7306AE2CF63}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="149.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -551,41 +579,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -593,43 +635,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,39 +681,39 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
